--- a/iselUssSyncV2/LogISEL_LogUSS_WSLgrid/L474W45Q60/20221110_1630_L474W45Q60H116G0_C.xlsx
+++ b/iselUssSyncV2/LogISEL_LogUSS_WSLgrid/L474W45Q60/20221110_1630_L474W45Q60H116G0_C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\iselTraverse\iselUssSyncV2\LogISEL_LogUSS_WSLgrid\L474W45Q60\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\iselTraverse\iselUssSyncV2\LogISEL_LogUSS_WSLgrid\L474W45Q60kombi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE82DFBF-B65F-4E7A-9684-23F6264FCFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD89968-9ACC-408C-83B2-ABEE0A1704E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Messdaten" sheetId="2" r:id="rId1"/>
@@ -409,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD53"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="P103" sqref="P103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4243,32 +4243,1272 @@
         <v>120</v>
       </c>
     </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>1260</v>
+      </c>
+      <c r="B110">
+        <v>65</v>
+      </c>
+      <c r="C110">
+        <v>185</v>
+      </c>
+      <c r="D110">
+        <v>305</v>
+      </c>
+      <c r="E110" s="1">
+        <v>44881.46610672454</v>
+      </c>
+      <c r="F110" s="1">
+        <v>44881.466164837962</v>
+      </c>
+      <c r="G110">
+        <v>5</v>
+      </c>
+      <c r="H110">
+        <v>-957</v>
+      </c>
+      <c r="I110">
+        <v>65</v>
+      </c>
+      <c r="J110">
+        <v>3</v>
+      </c>
+      <c r="K110">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>1260</v>
+      </c>
+      <c r="B111">
+        <v>125</v>
+      </c>
+      <c r="C111">
+        <v>245</v>
+      </c>
+      <c r="D111">
+        <v>365</v>
+      </c>
+      <c r="E111" s="1">
+        <v>44881.46633625</v>
+      </c>
+      <c r="F111" s="1">
+        <v>44881.466394236108</v>
+      </c>
+      <c r="G111">
+        <v>5</v>
+      </c>
+      <c r="H111">
+        <v>-957</v>
+      </c>
+      <c r="I111">
+        <v>65</v>
+      </c>
+      <c r="J111">
+        <v>3</v>
+      </c>
+      <c r="K111">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>1260</v>
+      </c>
+      <c r="B112">
+        <v>425</v>
+      </c>
+      <c r="C112">
+        <v>545</v>
+      </c>
+      <c r="D112">
+        <v>665</v>
+      </c>
+      <c r="E112" s="1">
+        <v>44881.46676009259</v>
+      </c>
+      <c r="F112" s="1">
+        <v>44881.466818194443</v>
+      </c>
+      <c r="G112">
+        <v>5</v>
+      </c>
+      <c r="H112">
+        <v>-957</v>
+      </c>
+      <c r="I112">
+        <v>65</v>
+      </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
+      <c r="K112">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>1260</v>
+      </c>
+      <c r="B113">
+        <v>485</v>
+      </c>
+      <c r="C113">
+        <v>605</v>
+      </c>
+      <c r="D113">
+        <v>725</v>
+      </c>
+      <c r="E113" s="1">
+        <v>44881.466989722219</v>
+      </c>
+      <c r="F113" s="1">
+        <v>44881.467047696759</v>
+      </c>
+      <c r="G113">
+        <v>5</v>
+      </c>
+      <c r="H113">
+        <v>-957</v>
+      </c>
+      <c r="I113">
+        <v>65</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+      <c r="K113">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>1320</v>
+      </c>
+      <c r="B114">
+        <v>65</v>
+      </c>
+      <c r="C114">
+        <v>185</v>
+      </c>
+      <c r="D114">
+        <v>305</v>
+      </c>
+      <c r="E114" s="1">
+        <v>44881.467623287041</v>
+      </c>
+      <c r="F114" s="1">
+        <v>44881.467681365742</v>
+      </c>
+      <c r="G114">
+        <v>5</v>
+      </c>
+      <c r="H114">
+        <v>-957</v>
+      </c>
+      <c r="I114">
+        <v>65</v>
+      </c>
+      <c r="J114">
+        <v>3</v>
+      </c>
+      <c r="K114">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>1320</v>
+      </c>
+      <c r="B115">
+        <v>125</v>
+      </c>
+      <c r="C115">
+        <v>245</v>
+      </c>
+      <c r="D115">
+        <v>365</v>
+      </c>
+      <c r="E115" s="1">
+        <v>44881.467852685186</v>
+      </c>
+      <c r="F115" s="1">
+        <v>44881.46791078704</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="H115">
+        <v>-957</v>
+      </c>
+      <c r="I115">
+        <v>65</v>
+      </c>
+      <c r="J115">
+        <v>3</v>
+      </c>
+      <c r="K115">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>1320</v>
+      </c>
+      <c r="B116">
+        <v>425</v>
+      </c>
+      <c r="C116">
+        <v>545</v>
+      </c>
+      <c r="D116">
+        <v>665</v>
+      </c>
+      <c r="E116" s="1">
+        <v>44881.46827675926</v>
+      </c>
+      <c r="F116" s="1">
+        <v>44881.468334849538</v>
+      </c>
+      <c r="G116">
+        <v>5</v>
+      </c>
+      <c r="H116">
+        <v>-957</v>
+      </c>
+      <c r="I116">
+        <v>65</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>1320</v>
+      </c>
+      <c r="B117">
+        <v>485</v>
+      </c>
+      <c r="C117">
+        <v>605</v>
+      </c>
+      <c r="D117">
+        <v>725</v>
+      </c>
+      <c r="E117" s="1">
+        <v>44881.468506620367</v>
+      </c>
+      <c r="F117" s="1">
+        <v>44881.468564710645</v>
+      </c>
+      <c r="G117">
+        <v>5</v>
+      </c>
+      <c r="H117">
+        <v>-957</v>
+      </c>
+      <c r="I117">
+        <v>65</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+      <c r="K117">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>1380</v>
+      </c>
+      <c r="B118">
+        <v>65</v>
+      </c>
+      <c r="C118">
+        <v>185</v>
+      </c>
+      <c r="D118">
+        <v>305</v>
+      </c>
+      <c r="E118" s="1">
+        <v>44881.469141111113</v>
+      </c>
+      <c r="F118" s="1">
+        <v>44881.469199085652</v>
+      </c>
+      <c r="G118">
+        <v>5</v>
+      </c>
+      <c r="H118">
+        <v>-957</v>
+      </c>
+      <c r="I118">
+        <v>65</v>
+      </c>
+      <c r="J118">
+        <v>3</v>
+      </c>
+      <c r="K118">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>1380</v>
+      </c>
+      <c r="B119">
+        <v>125</v>
+      </c>
+      <c r="C119">
+        <v>245</v>
+      </c>
+      <c r="D119">
+        <v>365</v>
+      </c>
+      <c r="E119" s="1">
+        <v>44881.469370729166</v>
+      </c>
+      <c r="F119" s="1">
+        <v>44881.469428715274</v>
+      </c>
+      <c r="G119">
+        <v>5</v>
+      </c>
+      <c r="H119">
+        <v>-957</v>
+      </c>
+      <c r="I119">
+        <v>65</v>
+      </c>
+      <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>1380</v>
+      </c>
+      <c r="B120">
+        <v>425</v>
+      </c>
+      <c r="C120">
+        <v>545</v>
+      </c>
+      <c r="D120">
+        <v>665</v>
+      </c>
+      <c r="E120" s="1">
+        <v>44881.469794861114</v>
+      </c>
+      <c r="F120" s="1">
+        <v>44881.469852789349</v>
+      </c>
+      <c r="G120">
+        <v>5</v>
+      </c>
+      <c r="H120">
+        <v>-957</v>
+      </c>
+      <c r="I120">
+        <v>65</v>
+      </c>
+      <c r="J120">
+        <v>3</v>
+      </c>
+      <c r="K120">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>1380</v>
+      </c>
+      <c r="B121">
+        <v>485</v>
+      </c>
+      <c r="C121">
+        <v>605</v>
+      </c>
+      <c r="D121">
+        <v>725</v>
+      </c>
+      <c r="E121" s="1">
+        <v>44881.470024212962</v>
+      </c>
+      <c r="F121" s="1">
+        <v>44881.470082199077</v>
+      </c>
+      <c r="G121">
+        <v>5</v>
+      </c>
+      <c r="H121">
+        <v>-957</v>
+      </c>
+      <c r="I121">
+        <v>65</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>1440</v>
+      </c>
+      <c r="B122">
+        <v>65</v>
+      </c>
+      <c r="C122">
+        <v>185</v>
+      </c>
+      <c r="D122">
+        <v>305</v>
+      </c>
+      <c r="E122" s="1">
+        <v>44881.470658819446</v>
+      </c>
+      <c r="F122" s="1">
+        <v>44881.470716793985</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122">
+        <v>-957</v>
+      </c>
+      <c r="I122">
+        <v>65</v>
+      </c>
+      <c r="J122">
+        <v>3</v>
+      </c>
+      <c r="K122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>1440</v>
+      </c>
+      <c r="B123">
+        <v>125</v>
+      </c>
+      <c r="C123">
+        <v>245</v>
+      </c>
+      <c r="D123">
+        <v>365</v>
+      </c>
+      <c r="E123" s="1">
+        <v>44881.470888796299</v>
+      </c>
+      <c r="F123" s="1">
+        <v>44881.470946898145</v>
+      </c>
+      <c r="G123">
+        <v>5</v>
+      </c>
+      <c r="H123">
+        <v>-957</v>
+      </c>
+      <c r="I123">
+        <v>65</v>
+      </c>
+      <c r="J123">
+        <v>3</v>
+      </c>
+      <c r="K123">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>1440</v>
+      </c>
+      <c r="B124">
+        <v>425</v>
+      </c>
+      <c r="C124">
+        <v>545</v>
+      </c>
+      <c r="D124">
+        <v>665</v>
+      </c>
+      <c r="E124" s="1">
+        <v>44881.471313333335</v>
+      </c>
+      <c r="F124" s="1">
+        <v>44881.471371435182</v>
+      </c>
+      <c r="G124">
+        <v>5</v>
+      </c>
+      <c r="H124">
+        <v>-957</v>
+      </c>
+      <c r="I124">
+        <v>65</v>
+      </c>
+      <c r="J124">
+        <v>3</v>
+      </c>
+      <c r="K124">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>1440</v>
+      </c>
+      <c r="B125">
+        <v>485</v>
+      </c>
+      <c r="C125">
+        <v>605</v>
+      </c>
+      <c r="D125">
+        <v>725</v>
+      </c>
+      <c r="E125" s="1">
+        <v>44881.471542037034</v>
+      </c>
+      <c r="F125" s="1">
+        <v>44881.471600138888</v>
+      </c>
+      <c r="G125">
+        <v>5</v>
+      </c>
+      <c r="H125">
+        <v>-957</v>
+      </c>
+      <c r="I125">
+        <v>65</v>
+      </c>
+      <c r="J125">
+        <v>3</v>
+      </c>
+      <c r="K125">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>1500</v>
+      </c>
+      <c r="B126">
+        <v>65</v>
+      </c>
+      <c r="C126">
+        <v>185</v>
+      </c>
+      <c r="D126">
+        <v>305</v>
+      </c>
+      <c r="E126" s="1">
+        <v>44881.472177222226</v>
+      </c>
+      <c r="F126" s="1">
+        <v>44881.472235196758</v>
+      </c>
+      <c r="G126">
+        <v>5</v>
+      </c>
+      <c r="H126">
+        <v>-957</v>
+      </c>
+      <c r="I126">
+        <v>65</v>
+      </c>
+      <c r="J126">
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>1500</v>
+      </c>
+      <c r="B127">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <v>245</v>
+      </c>
+      <c r="D127">
+        <v>365</v>
+      </c>
+      <c r="E127" s="1">
+        <v>44881.472407071757</v>
+      </c>
+      <c r="F127" s="1">
+        <v>44881.472465069448</v>
+      </c>
+      <c r="G127">
+        <v>5</v>
+      </c>
+      <c r="H127">
+        <v>-957</v>
+      </c>
+      <c r="I127">
+        <v>65</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>1500</v>
+      </c>
+      <c r="B128">
+        <v>425</v>
+      </c>
+      <c r="C128">
+        <v>545</v>
+      </c>
+      <c r="D128">
+        <v>665</v>
+      </c>
+      <c r="E128" s="1">
+        <v>44881.472831030092</v>
+      </c>
+      <c r="F128" s="1">
+        <v>44881.472889027777</v>
+      </c>
+      <c r="G128">
+        <v>5</v>
+      </c>
+      <c r="H128">
+        <v>-957</v>
+      </c>
+      <c r="I128">
+        <v>65</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>1500</v>
+      </c>
+      <c r="B129">
+        <v>485</v>
+      </c>
+      <c r="C129">
+        <v>605</v>
+      </c>
+      <c r="D129">
+        <v>725</v>
+      </c>
+      <c r="E129" s="1">
+        <v>44881.473060671298</v>
+      </c>
+      <c r="F129" s="1">
+        <v>44881.473118657406</v>
+      </c>
+      <c r="G129">
+        <v>5</v>
+      </c>
+      <c r="H129">
+        <v>-957</v>
+      </c>
+      <c r="I129">
+        <v>65</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>1560</v>
+      </c>
+      <c r="B130">
+        <v>65</v>
+      </c>
+      <c r="C130">
+        <v>185</v>
+      </c>
+      <c r="D130">
+        <v>305</v>
+      </c>
+      <c r="E130" s="1">
+        <v>44881.473695266206</v>
+      </c>
+      <c r="F130" s="1">
+        <v>44881.47375326389</v>
+      </c>
+      <c r="G130">
+        <v>5</v>
+      </c>
+      <c r="H130">
+        <v>-957</v>
+      </c>
+      <c r="I130">
+        <v>65</v>
+      </c>
+      <c r="J130">
+        <v>3</v>
+      </c>
+      <c r="K130">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>1560</v>
+      </c>
+      <c r="B131">
+        <v>125</v>
+      </c>
+      <c r="C131">
+        <v>245</v>
+      </c>
+      <c r="D131">
+        <v>365</v>
+      </c>
+      <c r="E131" s="1">
+        <v>44881.473924907405</v>
+      </c>
+      <c r="F131" s="1">
+        <v>44881.47398289352</v>
+      </c>
+      <c r="G131">
+        <v>5</v>
+      </c>
+      <c r="H131">
+        <v>-957</v>
+      </c>
+      <c r="I131">
+        <v>65</v>
+      </c>
+      <c r="J131">
+        <v>3</v>
+      </c>
+      <c r="K131">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>1560</v>
+      </c>
+      <c r="B132">
+        <v>425</v>
+      </c>
+      <c r="C132">
+        <v>545</v>
+      </c>
+      <c r="D132">
+        <v>665</v>
+      </c>
+      <c r="E132" s="1">
+        <v>44881.47434886574</v>
+      </c>
+      <c r="F132" s="1">
+        <v>44881.474406817128</v>
+      </c>
+      <c r="G132">
+        <v>5</v>
+      </c>
+      <c r="H132">
+        <v>-957</v>
+      </c>
+      <c r="I132">
+        <v>65</v>
+      </c>
+      <c r="J132">
+        <v>3</v>
+      </c>
+      <c r="K132">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>1560</v>
+      </c>
+      <c r="B133">
+        <v>485</v>
+      </c>
+      <c r="C133">
+        <v>605</v>
+      </c>
+      <c r="D133">
+        <v>725</v>
+      </c>
+      <c r="E133" s="1">
+        <v>44881.474578009256</v>
+      </c>
+      <c r="F133" s="1">
+        <v>44881.47463611111</v>
+      </c>
+      <c r="G133">
+        <v>5</v>
+      </c>
+      <c r="H133">
+        <v>-957</v>
+      </c>
+      <c r="I133">
+        <v>65</v>
+      </c>
+      <c r="J133">
+        <v>3</v>
+      </c>
+      <c r="K133">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>1620</v>
+      </c>
+      <c r="B134">
+        <v>65</v>
+      </c>
+      <c r="C134">
+        <v>185</v>
+      </c>
+      <c r="D134">
+        <v>305</v>
+      </c>
+      <c r="E134" s="1">
+        <v>44881.475212847225</v>
+      </c>
+      <c r="F134" s="1">
+        <v>44881.475270833333</v>
+      </c>
+      <c r="G134">
+        <v>5</v>
+      </c>
+      <c r="H134">
+        <v>-957</v>
+      </c>
+      <c r="I134">
+        <v>65</v>
+      </c>
+      <c r="J134">
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>1620</v>
+      </c>
+      <c r="B135">
+        <v>125</v>
+      </c>
+      <c r="C135">
+        <v>245</v>
+      </c>
+      <c r="D135">
+        <v>365</v>
+      </c>
+      <c r="E135" s="1">
+        <v>44881.47544224537</v>
+      </c>
+      <c r="F135" s="1">
+        <v>44881.475500231485</v>
+      </c>
+      <c r="G135">
+        <v>5</v>
+      </c>
+      <c r="H135">
+        <v>-957</v>
+      </c>
+      <c r="I135">
+        <v>65</v>
+      </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>1620</v>
+      </c>
+      <c r="B136">
+        <v>425</v>
+      </c>
+      <c r="C136">
+        <v>545</v>
+      </c>
+      <c r="D136">
+        <v>665</v>
+      </c>
+      <c r="E136" s="1">
+        <v>44881.475866423614</v>
+      </c>
+      <c r="F136" s="1">
+        <v>44881.475924537037</v>
+      </c>
+      <c r="G136">
+        <v>5</v>
+      </c>
+      <c r="H136">
+        <v>-957</v>
+      </c>
+      <c r="I136">
+        <v>65</v>
+      </c>
+      <c r="J136">
+        <v>3</v>
+      </c>
+      <c r="K136">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>1620</v>
+      </c>
+      <c r="B137">
+        <v>485</v>
+      </c>
+      <c r="C137">
+        <v>605</v>
+      </c>
+      <c r="D137">
+        <v>725</v>
+      </c>
+      <c r="E137" s="1">
+        <v>44881.476096064813</v>
+      </c>
+      <c r="F137" s="1">
+        <v>44881.476154166667</v>
+      </c>
+      <c r="G137">
+        <v>5</v>
+      </c>
+      <c r="H137">
+        <v>-957</v>
+      </c>
+      <c r="I137">
+        <v>65</v>
+      </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
+      <c r="K137">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>1680</v>
+      </c>
+      <c r="B138">
+        <v>65</v>
+      </c>
+      <c r="C138">
+        <v>185</v>
+      </c>
+      <c r="D138">
+        <v>305</v>
+      </c>
+      <c r="E138" s="1">
+        <v>44881.476730439812</v>
+      </c>
+      <c r="F138" s="1">
+        <v>44881.476788541666</v>
+      </c>
+      <c r="G138">
+        <v>5</v>
+      </c>
+      <c r="H138">
+        <v>-957</v>
+      </c>
+      <c r="I138">
+        <v>65</v>
+      </c>
+      <c r="J138">
+        <v>3</v>
+      </c>
+      <c r="K138">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>1680</v>
+      </c>
+      <c r="B139">
+        <v>125</v>
+      </c>
+      <c r="C139">
+        <v>245</v>
+      </c>
+      <c r="D139">
+        <v>365</v>
+      </c>
+      <c r="E139" s="1">
+        <v>44881.476960300926</v>
+      </c>
+      <c r="F139" s="1">
+        <v>44881.477018287034</v>
+      </c>
+      <c r="G139">
+        <v>5</v>
+      </c>
+      <c r="H139">
+        <v>-957</v>
+      </c>
+      <c r="I139">
+        <v>65</v>
+      </c>
+      <c r="J139">
+        <v>3</v>
+      </c>
+      <c r="K139">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>1680</v>
+      </c>
+      <c r="B140">
+        <v>425</v>
+      </c>
+      <c r="C140">
+        <v>545</v>
+      </c>
+      <c r="D140">
+        <v>665</v>
+      </c>
+      <c r="E140" s="1">
+        <v>44881.477384375001</v>
+      </c>
+      <c r="F140" s="1">
+        <v>44881.477442476855</v>
+      </c>
+      <c r="G140">
+        <v>5</v>
+      </c>
+      <c r="H140">
+        <v>-957</v>
+      </c>
+      <c r="I140">
+        <v>65</v>
+      </c>
+      <c r="J140">
+        <v>3</v>
+      </c>
+      <c r="K140">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>1680</v>
+      </c>
+      <c r="B141">
+        <v>485</v>
+      </c>
+      <c r="C141">
+        <v>605</v>
+      </c>
+      <c r="D141">
+        <v>725</v>
+      </c>
+      <c r="E141" s="1">
+        <v>44881.477614236108</v>
+      </c>
+      <c r="F141" s="1">
+        <v>44881.47767216435</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
+      </c>
+      <c r="H141">
+        <v>-957</v>
+      </c>
+      <c r="I141">
+        <v>65</v>
+      </c>
+      <c r="J141">
+        <v>3</v>
+      </c>
+      <c r="K141">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>1740</v>
+      </c>
+      <c r="B142">
+        <v>65</v>
+      </c>
+      <c r="C142">
+        <v>185</v>
+      </c>
+      <c r="D142">
+        <v>305</v>
+      </c>
+      <c r="E142" s="1">
+        <v>44881.47824895833</v>
+      </c>
+      <c r="F142" s="1">
+        <v>44881.478306944446</v>
+      </c>
+      <c r="G142">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>-957</v>
+      </c>
+      <c r="I142">
+        <v>65</v>
+      </c>
+      <c r="J142">
+        <v>3</v>
+      </c>
+      <c r="K142">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>1740</v>
+      </c>
+      <c r="B143">
+        <v>125</v>
+      </c>
+      <c r="C143">
+        <v>245</v>
+      </c>
+      <c r="D143">
+        <v>365</v>
+      </c>
+      <c r="E143" s="1">
+        <v>44881.47847858796</v>
+      </c>
+      <c r="F143" s="1">
+        <v>44881.478536574075</v>
+      </c>
+      <c r="G143">
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>-957</v>
+      </c>
+      <c r="I143">
+        <v>65</v>
+      </c>
+      <c r="J143">
+        <v>3</v>
+      </c>
+      <c r="K143">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>1740</v>
+      </c>
+      <c r="B144">
+        <v>425</v>
+      </c>
+      <c r="C144">
+        <v>545</v>
+      </c>
+      <c r="D144">
+        <v>665</v>
+      </c>
+      <c r="E144" s="1">
+        <v>44881.478902303243</v>
+      </c>
+      <c r="F144" s="1">
+        <v>44881.478960416665</v>
+      </c>
+      <c r="G144">
+        <v>5</v>
+      </c>
+      <c r="H144">
+        <v>-957</v>
+      </c>
+      <c r="I144">
+        <v>65</v>
+      </c>
+      <c r="J144">
+        <v>3</v>
+      </c>
+      <c r="K144">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>1740</v>
+      </c>
+      <c r="B145">
+        <v>485</v>
+      </c>
+      <c r="C145">
+        <v>605</v>
+      </c>
+      <c r="D145">
+        <v>725</v>
+      </c>
+      <c r="E145" s="1">
+        <v>44881.479131481479</v>
+      </c>
+      <c r="F145" s="1">
+        <v>44881.479189583333</v>
+      </c>
+      <c r="G145">
+        <v>5</v>
+      </c>
+      <c r="H145">
+        <v>-957</v>
+      </c>
+      <c r="I145">
+        <v>65</v>
+      </c>
+      <c r="J145">
+        <v>3</v>
+      </c>
+      <c r="K145">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8ae7f66e-58f5-4702-9ce4-4e42d3b71835">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="cb9266cd-28ce-43c9-875d-458ea4fc2c89" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100225DA3F38691BB46B0BBBAB2B4593C02" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="22217092708ea6e030769b7a958e5c6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8ae7f66e-58f5-4702-9ce4-4e42d3b71835" xmlns:ns3="cb9266cd-28ce-43c9-875d-458ea4fc2c89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b0b5a1fc0d0b99520a1d1a74f33087a" ns2:_="" ns3:_="">
     <xsd:import namespace="8ae7f66e-58f5-4702-9ce4-4e42d3b71835"/>
@@ -4437,26 +5677,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCDD0445-705A-4F9A-BFC8-8CA4331D6030}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8ae7f66e-58f5-4702-9ce4-4e42d3b71835"/>
-    <ds:schemaRef ds:uri="cb9266cd-28ce-43c9-875d-458ea4fc2c89"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C8A2588-7A4E-4652-A746-771A4216F83C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8ae7f66e-58f5-4702-9ce4-4e42d3b71835">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="cb9266cd-28ce-43c9-875d-458ea4fc2c89" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B61F3905-5E70-44F7-9FDE-85B90B683C0E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4473,4 +5714,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C8A2588-7A4E-4652-A746-771A4216F83C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCDD0445-705A-4F9A-BFC8-8CA4331D6030}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8ae7f66e-58f5-4702-9ce4-4e42d3b71835"/>
+    <ds:schemaRef ds:uri="cb9266cd-28ce-43c9-875d-458ea4fc2c89"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>